--- a/biology/Zoologie/Calyptommatus/Calyptommatus.xlsx
+++ b/biology/Zoologie/Calyptommatus/Calyptommatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calyptommatus est un genre de sauriens de la famille des Gymnophthalmidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calyptommatus est un genre de sauriens de la famille des Gymnophthalmidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les quatre espèces de ce genre sont endémiques du Nordeste au Brésil[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les quatre espèces de ce genre sont endémiques du Nordeste au Brésil.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des sauriens diurnes et ovipares, ils sont assez petits. Ils présentent des pattes arrière très atrophiées, et une absence de pattes avant. 
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (7 janvier 2016)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (7 janvier 2016) :
 Calyptommatus confusionibus Rodrigues, Zaher &amp; Curcio, 2001
 Calyptommatus leiolepis Rodrigues, 1991
 Calyptommatus nicterus Rodrigues, 1991
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Rodrigues, 1991 : Herpetofauna das dunas interiores do rio São Francisco, Bahia, Brasil. 1. Introdução à área e descrição de um novo gênero de microteiídeos (Calyptommatus) com notas sobre sua ecologia, distribuição e especiação (Sauria, Teiidae). Papéis Avulsos de Zoologia (São Paulo), vol. 37, no 19, p. 285-320.</t>
         </is>
